--- a/Illustrations/evaluationFocusSheet.xlsx
+++ b/Illustrations/evaluationFocusSheet.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rasmusherskind/ITU/Architecture/Illustrations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Architecture\Architecture\Illustrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6659885-2166-F44D-A150-2D76B065BD0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F2D0E7-4472-43CB-A267-8DD3C9451BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{721CC4EF-CA94-6A4F-BA31-6FDFBFFDA479}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{721CC4EF-CA94-6A4F-BA31-6FDFBFFDA479}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$8:$D$12</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$7</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$H$8:$H$12</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$E$8:$E$12</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$7</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$8:$F$12</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$G$7</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$G$8:$G$12</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$H$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$H$8:$H$12</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$H$7</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -145,7 +132,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -403,6 +390,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-E743-4A86-AD3B-9DC71CE7B8C8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$D$8:$D$12</c:f>
@@ -661,7 +667,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2474,19 +2480,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563904DB-0AEC-604A-814A-C278574B74CE}">
   <dimension ref="D7:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:H12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="71" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>1</v>
       </c>
@@ -2521,7 +2527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>2</v>
       </c>
@@ -2539,7 +2545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>3</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>4</v>
       </c>
@@ -2575,7 +2581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>5</v>
       </c>
